--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,33 +1,259 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Plan1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+  <si>
+    <t>user01</t>
+  </si>
+  <si>
+    <t>variant01</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Fabio</t>
+  </si>
+  <si>
+    <t>Danilo</t>
+  </si>
+  <si>
+    <t>Moe</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>user06</t>
+  </si>
+  <si>
+    <t>Aline</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>user02</t>
+  </si>
+  <si>
+    <t>entry22</t>
+  </si>
+  <si>
+    <t>Claudio</t>
+  </si>
+  <si>
+    <t>Golgol</t>
+  </si>
+  <si>
+    <t>azimbia</t>
+  </si>
+  <si>
+    <t>Bheles</t>
+  </si>
+  <si>
+    <t>Djorge</t>
+  </si>
+  <si>
+    <t>zoin33</t>
+  </si>
+  <si>
+    <t>zones99</t>
+  </si>
+  <si>
+    <t>bamboo2</t>
+  </si>
+  <si>
+    <t>FBZ@Abcde.com</t>
+  </si>
+  <si>
+    <t>FCV@Abcde.com</t>
+  </si>
+  <si>
+    <t>ASV@Abcde.com</t>
+  </si>
+  <si>
+    <t>MOE@Abcde.com</t>
+  </si>
+  <si>
+    <t>GSK@Abcde.com</t>
+  </si>
+  <si>
+    <t>FBX@Abcde.com</t>
+  </si>
+  <si>
+    <t>ADH@Abcde.com</t>
+  </si>
+  <si>
+    <t>loginA</t>
+  </si>
+  <si>
+    <t>Cyve</t>
+  </si>
+  <si>
+    <t>Lima2</t>
+  </si>
+  <si>
+    <t>warehouse</t>
+  </si>
+  <si>
+    <t>Vtorres</t>
+  </si>
+  <si>
+    <t>Bruno3</t>
+  </si>
+  <si>
+    <t>user03</t>
+  </si>
+  <si>
+    <t>Amanoel</t>
+  </si>
+  <si>
+    <t>login_teste</t>
+  </si>
+  <si>
+    <t>user04</t>
+  </si>
+  <si>
+    <t>user05</t>
+  </si>
+  <si>
+    <t>kntvhj</t>
+  </si>
+  <si>
+    <t>balabalu00</t>
+  </si>
+  <si>
+    <t>passcode01</t>
+  </si>
+  <si>
+    <t>helios23</t>
+  </si>
+  <si>
+    <t>serviço10</t>
+  </si>
+  <si>
+    <t>cargo99</t>
+  </si>
+  <si>
+    <t>felicidade78</t>
+  </si>
+  <si>
+    <t>bignet33</t>
+  </si>
+  <si>
+    <t>admin1234</t>
+  </si>
+  <si>
+    <t>digit05</t>
+  </si>
+  <si>
+    <t>aeoiu21</t>
+  </si>
+  <si>
+    <t>JST@Abcde.com</t>
+  </si>
+  <si>
+    <t>XOE@Abcde.com</t>
+  </si>
+  <si>
+    <t>TNS@Abcde.com</t>
+  </si>
+  <si>
+    <t>QLA@Abcde.com</t>
+  </si>
+  <si>
+    <t>JRZ@Abcde.com</t>
+  </si>
+  <si>
+    <t>TXI@Abcde.com</t>
+  </si>
+  <si>
+    <t>OSY@Abcde.com</t>
+  </si>
+  <si>
+    <t>WYP@Abcde.com</t>
+  </si>
+  <si>
+    <t>ZUS@Abcde.com</t>
+  </si>
+  <si>
+    <t>JCT@Abcde.com</t>
+  </si>
+  <si>
+    <t>AGW@Abcde.com</t>
+  </si>
+  <si>
+    <t>BKQ@Abcde.com</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Vinicius</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Cibele</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Augusto</t>
+  </si>
+  <si>
+    <t>Norberto</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Helio</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +272,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -407,175 +566,364 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>user01</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>variant01</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>FBZ@brotherbund.com</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Ana</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Azimba</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>xabalabaluba</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FCV@brotherbund.com</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Fabio</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
         <v>25</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Goloko</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>zoiao69</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ASS@brotherbund.com</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Danilo</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
         <v>19</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Baiuca1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>zonasul99</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MOE@brotherbund.com</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Moe</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
         <v>39</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>jobijoba</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>bamboleo</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>GSK@brotherbund.com</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Carlos</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>user06</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>variant01</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FBX@brotherbund.com</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Aline</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <pageSetup orientation="portrait" paperSize="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2"/>
+    <hyperlink ref="C11" r:id="rId3"/>
+    <hyperlink ref="C12" r:id="rId4"/>
+    <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="C14" r:id="rId6"/>
+    <hyperlink ref="C15" r:id="rId7"/>
+    <hyperlink ref="C16" r:id="rId8"/>
+    <hyperlink ref="C17" r:id="rId9"/>
+    <hyperlink ref="C18" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C20" r:id="rId12"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>